--- a/data/trans_camb/P24_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P24_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>5,31</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>5,68</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-3,02</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,05</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>2,66</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,78</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-2,94</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>4,7</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 11,05</t>
+          <t>-3,66; 14,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 12,24</t>
+          <t>-3,5; 15,09</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,33; 4,89</t>
+          <t>-11,71; 6,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,87; 5,55</t>
+          <t>-0,59; 33,4</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 5,64</t>
+          <t>-8,81; 11,35</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 5,59</t>
+          <t>-11,44; 7,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,21</t>
+          <t>-11,35; 7,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 5,86</t>
+          <t>-9,91; 10,34</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 3,17</t>
+          <t>-4,24; 9,93</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,95; 8,65</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-9,76; 3,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,92; 16,46</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>19,29%</t>
+          <t>27,31%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,41%</t>
+          <t>29,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-11,07%</t>
+          <t>-15,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-3,17%</t>
+          <t>57,55%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,71%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,84%</t>
+          <t>-3,53%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,74%</t>
+          <t>-5,3%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>-1,37%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-7,22%</t>
+          <t>9,19%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-10,15%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 67,2</t>
+          <t>-16,22; 99,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,8; 77,25</t>
+          <t>-16,03; 100,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 31,92</t>
+          <t>-49,19; 42,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-22,83; 18,0</t>
+          <t>-6,85; 223,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,29; 17,34</t>
+          <t>-21,34; 36,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,13; 18,07</t>
+          <t>-27,91; 25,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-14,26; 23,95</t>
+          <t>-26,88; 24,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 23,48</t>
+          <t>-24,12; 31,4</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,58; 12,38</t>
+          <t>-13,12; 38,69</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-18,03; 34,32</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-29,84; 15,26</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,6; 62,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,7</t>
+          <t>6,99</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>4,67</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,32</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-6,32</t>
+          <t>-6,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-6,87</t>
+          <t>-11,92</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-13,2</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-3,29</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-4,93</t>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-4,3</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-6,82</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,4; 7,5</t>
+          <t>-2,64; 18,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 8,97</t>
+          <t>-6,43; 15,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 5,1</t>
+          <t>-8,8; 9,92</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-11,22; 5,86</t>
+          <t>-2,01; 17,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-14,69; 2,31</t>
+          <t>-16,8; 5,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,6; 1,83</t>
+          <t>-22,72; -0,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,32</t>
+          <t>-23,89; -3,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-9,7; 2,02</t>
+          <t>-11,8; 15,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-11,05; 0,76</t>
+          <t>-7,82; 7,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-12,09; 3,18</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-14,27; 0,37</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-4,84; 11,72</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,66%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,13%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,72%</t>
+          <t>5,02%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-6,46%</t>
+          <t>44,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-17,58%</t>
+          <t>-15,16%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-19,11%</t>
+          <t>-29,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-6,08%</t>
+          <t>-32,98%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-17,54%</t>
+          <t>0,24%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-14,37%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-22,8%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,25%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-37,27; 48,45</t>
+          <t>-13,57; 135,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-32,14; 62,28</t>
+          <t>-29,23; 108,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 35,29</t>
+          <t>-39,89; 71,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,22; 19,01</t>
+          <t>-9,25; 129,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-36,46; 7,57</t>
+          <t>-37,3; 14,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-39,11; 5,79</t>
+          <t>-49,96; -1,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-25,74; 17,37</t>
+          <t>-52,33; -7,98</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,77; 8,12</t>
+          <t>-26,52; 43,76</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 3,78</t>
+          <t>-23,53; 28,65</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-35,16; 12,64</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-41,52; 1,89</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-15,42; 45,7</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>17,19</t>
+          <t>32,19</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,03</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>2,48</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>27,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-0,96</t>
+          <t>8,56</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,09</t>
+          <t>13,37</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>9,09</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,97</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,25</t>
+          <t>20,46</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,76</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>22,74</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 43,08</t>
+          <t>4,81; 68,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 8,06</t>
+          <t>-18,89; 18,48</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-19,23; 8,98</t>
+          <t>-15,41; 23,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-16,07; 14,19</t>
+          <t>0,06; 68,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,41; 13,76</t>
+          <t>-10,84; 27,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-14,33; 15,76</t>
+          <t>-6,49; 33,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 24,09</t>
+          <t>-8,08; 29,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 7,84</t>
+          <t>-4,27; 37,79</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-13,18; 8,11</t>
+          <t>2,95; 43,33</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,4; 22,75</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,87; 21,3</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4,85; 46,6</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>91,78%</t>
+          <t>254,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-26,85%</t>
+          <t>-1,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-26,95%</t>
+          <t>19,63%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>218,41%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-3,5%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>61,41%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>39,83%</t>
+          <t>49,65%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-13,0%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-9,87%</t>
+          <t>119,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39,4%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>37,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>132,59%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1412,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 367,55</t>
+          <t>-0,63; 2288,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-72,51; 74,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-72,77; 80,1</t>
+          <t>-76,87; 674,61</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,32; 71,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-46,63; 72,47</t>
+          <t>-36,75; 264,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,67; 83,99</t>
+          <t>-24,24; 294,26</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-9,51; 145,18</t>
+          <t>-31,07; 255,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-49,79; 45,4</t>
+          <t>-18,57; 306,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-46,19; 45,83</t>
+          <t>4,73; 452,74</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-32,4; 251,39</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-34,51; 212,91</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>13,13; 527,63</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3,55</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,64</t>
+          <t>-1,44</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>-4,19</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,83</t>
+          <t>-5,31</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-1,11</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-3,22</t>
+          <t>3,46</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-3,55</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>6,17</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 9,21</t>
+          <t>1,78; 17,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 7,35</t>
+          <t>-2,0; 11,37</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 2,37</t>
+          <t>-7,04; 5,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-6,21; 4,09</t>
+          <t>3,59; 24,59</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,55; 1,51</t>
+          <t>-8,67; 5,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-8,45; 2,38</t>
+          <t>-10,88; 3,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,1</t>
+          <t>-11,96; 1,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 2,49</t>
+          <t>-5,17; 9,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 0,14</t>
+          <t>-1,91; 8,73</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-5,02; 4,65</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-8,12; 1,14</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0,48; 12,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>18,61%</t>
+          <t>49,65%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>10,52%</t>
+          <t>25,7%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-12,45%</t>
+          <t>-4,36%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,23%</t>
+          <t>65,29%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-10,43%</t>
+          <t>-3,91%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-9,53%</t>
+          <t>-11,39%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>-14,46%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-4,02%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-11,72%</t>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-0,61%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-12,62%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>21,94%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,81 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-8,3; 53,94</t>
+          <t>8,44; 117,19</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-12,16; 44,18</t>
+          <t>-9,47; 74,13</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-33,1; 13,69</t>
+          <t>-34,15; 36,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-16,83; 12,76</t>
+          <t>16,44; 157,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,29; 4,25</t>
+          <t>-21,42; 17,63</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-22,97; 7,02</t>
+          <t>-27,68; 9,69</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-12,08; 16,18</t>
+          <t>-29,59; 4,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,88; 9,66</t>
+          <t>-13,14; 30,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 0,47</t>
+          <t>-6,14; 34,73</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 18,36</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-26,97; 4,49</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 46,01</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
